--- a/alternative_inputs/Inputdata_2030_0_5_all.xlsx
+++ b/alternative_inputs/Inputdata_2030_0_5_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Code_Projekte\GitHub\hydro_opt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Code\hydro_opt\alternative_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E018E67-D211-4A40-BF6D-37726B60FD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523D588-858B-4848-8794-625C54DFAC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
-    <t>Land</t>
-  </si>
-  <si>
     <t>H2 Herstellungspreis</t>
   </si>
   <si>
@@ -756,6 +753,9 @@
   </si>
   <si>
     <t>ZM</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -1111,76 +1111,76 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N114"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>114.18043096644605</v>
@@ -1219,12 +1219,12 @@
         <v>168775312.66983411</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3">
         <v>111.7431923312148</v>
@@ -1263,12 +1263,12 @@
         <v>15895088.557131464</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4">
         <v>175.15924701753354</v>
@@ -1307,12 +1307,12 @@
         <v>39023504.282256924</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5">
         <v>105.15205106303237</v>
@@ -1351,12 +1351,12 @@
         <v>1042260365.0482752</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6">
         <v>112.16689538627715</v>
@@ -1395,12 +1395,12 @@
         <v>1746331.7850772727</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
       </c>
       <c r="C7">
         <v>127.63965379483098</v>
@@ -1439,12 +1439,12 @@
         <v>2069384.2124373105</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
       <c r="C8">
         <v>107.34030130528495</v>
@@ -1483,12 +1483,12 @@
         <v>250949.14154536289</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
       </c>
       <c r="C9">
         <v>118.40473133852147</v>
@@ -1527,12 +1527,12 @@
         <v>3636427.4190016421</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
       </c>
       <c r="C10">
         <v>234.19125082985636</v>
@@ -1571,12 +1571,12 @@
         <v>1313855.9461844666</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
       </c>
       <c r="C11">
         <v>108.62192656512525</v>
@@ -1615,12 +1615,12 @@
         <v>745194.13931523846</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
       </c>
       <c r="C12">
         <v>115.13906975189931</v>
@@ -1659,12 +1659,12 @@
         <v>6548723.342857155</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
       </c>
       <c r="C13">
         <v>120.01313137358764</v>
@@ -1703,12 +1703,12 @@
         <v>3267502.6177577274</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
       </c>
       <c r="C14">
         <v>116.89224617557487</v>
@@ -1747,12 +1747,12 @@
         <v>25209643.889480866</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
       </c>
       <c r="C15">
         <v>112.11596985103871</v>
@@ -1791,12 +1791,12 @@
         <v>146966906.0098919</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
       </c>
       <c r="C16">
         <v>299.94667872434752</v>
@@ -1835,12 +1835,12 @@
         <v>38617.348428395111</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
       </c>
       <c r="C17">
         <v>106.31051467650651</v>
@@ -1879,12 +1879,12 @@
         <v>6889855.4443524694</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
       </c>
       <c r="C18">
         <v>106.00255161879522</v>
@@ -1923,12 +1923,12 @@
         <v>4887106.8042009333</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
       </c>
       <c r="C19">
         <v>182.9362270731697</v>
@@ -1967,12 +1967,12 @@
         <v>480133.18418144004</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
       </c>
       <c r="C20">
         <v>112.38016965027228</v>
@@ -2011,12 +2011,12 @@
         <v>5171925.6123989029</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
       </c>
       <c r="C21">
         <v>105.37691893629409</v>
@@ -2055,12 +2055,12 @@
         <v>75681750.434494585</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
       </c>
       <c r="C22">
         <v>109.5427004576419</v>
@@ -2099,12 +2099,12 @@
         <v>33206375.459616888</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
       </c>
       <c r="C23">
         <v>100.54689360283768</v>
@@ -2143,12 +2143,12 @@
         <v>26610472.151597831</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
       </c>
       <c r="C24">
         <v>86.532935876908823</v>
@@ -2187,12 +2187,12 @@
         <v>657905207.8091538</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
       </c>
       <c r="C25">
         <v>107.41992162137828</v>
@@ -2231,12 +2231,12 @@
         <v>5593530.7734303344</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
       </c>
       <c r="C26">
         <v>113.25701452074793</v>
@@ -2275,12 +2275,12 @@
         <v>9102993.3377850093</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
       </c>
       <c r="C27">
         <v>139.33352853354634</v>
@@ -2319,12 +2319,12 @@
         <v>763329.61204898369</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
       </c>
       <c r="C28">
         <v>118.79855474116513</v>
@@ -2363,12 +2363,12 @@
         <v>215073.24623265525</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
       </c>
       <c r="C29">
         <v>98.96258800679982</v>
@@ -2407,12 +2407,12 @@
         <v>3791669.0319525623</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
       </c>
       <c r="C30">
         <v>115.37520593618112</v>
@@ -2451,12 +2451,12 @@
         <v>813592.84569062304</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
       </c>
       <c r="C31">
         <v>135.94060032691718</v>
@@ -2495,12 +2495,12 @@
         <v>232035517.72978088</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
       </c>
       <c r="C32">
         <v>626.94036162144982</v>
@@ -2539,12 +2539,12 @@
         <v>18813.657046413209</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
       </c>
       <c r="C33">
         <v>109.20232423062998</v>
@@ -2583,12 +2583,12 @@
         <v>1339644.9834525588</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
       </c>
       <c r="C34">
         <v>116.59020745232439</v>
@@ -2627,12 +2627,12 @@
         <v>31056568.326488357</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
       </c>
       <c r="C35">
         <v>104.83863592661613</v>
@@ -2671,12 +2671,12 @@
         <v>4719057.5502124606</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
       </c>
       <c r="C36">
         <v>102.41189312252322</v>
@@ -2715,12 +2715,12 @@
         <v>32862353.110671088</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>85</v>
       </c>
       <c r="C37">
         <v>119.67997648455535</v>
@@ -2759,12 +2759,12 @@
         <v>359692.77989653469</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
         <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
       </c>
       <c r="C38">
         <v>138.35730785918898</v>
@@ -2803,12 +2803,12 @@
         <v>1433305.4098128546</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C39">
         <v>103.75573948296437</v>
@@ -2847,12 +2847,12 @@
         <v>3498734.8294080035</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
         <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
       </c>
       <c r="C40">
         <v>120.23186513695046</v>
@@ -2891,12 +2891,12 @@
         <v>12856923.441754179</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
         <v>92</v>
-      </c>
-      <c r="B41" t="s">
-        <v>93</v>
       </c>
       <c r="C41">
         <v>124.24400528426213</v>
@@ -2935,12 +2935,12 @@
         <v>23172896.420626882</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
         <v>94</v>
-      </c>
-      <c r="B42" t="s">
-        <v>95</v>
       </c>
       <c r="C42">
         <v>130.78336885801303</v>
@@ -2979,12 +2979,12 @@
         <v>2688840.1953536849</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
         <v>96</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
       </c>
       <c r="C43">
         <v>140.5387926651332</v>
@@ -3023,12 +3023,12 @@
         <v>1167834.363568017</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
         <v>98</v>
-      </c>
-      <c r="B44" t="s">
-        <v>99</v>
       </c>
       <c r="C44">
         <v>116.60483543455884</v>
@@ -3067,12 +3067,12 @@
         <v>3272301.5143538644</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
       </c>
       <c r="C45">
         <v>101.66916830573659</v>
@@ -3111,12 +3111,12 @@
         <v>1540157.3704466147</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
         <v>102</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
       </c>
       <c r="C46">
         <v>99.902856486325277</v>
@@ -3155,12 +3155,12 @@
         <v>60203254.805041254</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
         <v>104</v>
-      </c>
-      <c r="B47" t="s">
-        <v>105</v>
       </c>
       <c r="C47">
         <v>192.644387987089</v>
@@ -3199,12 +3199,12 @@
         <v>20028964.438672967</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
         <v>106</v>
-      </c>
-      <c r="B48" t="s">
-        <v>107</v>
       </c>
       <c r="C48">
         <v>168.63213270208445</v>
@@ -3243,12 +3243,12 @@
         <v>173797790.56928569</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" t="s">
-        <v>109</v>
       </c>
       <c r="C49">
         <v>105.19688370695708</v>
@@ -3287,12 +3287,12 @@
         <v>38721095.982301861</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
         <v>110</v>
-      </c>
-      <c r="B50" t="s">
-        <v>111</v>
       </c>
       <c r="C50">
         <v>123.18388722321478</v>
@@ -3331,12 +3331,12 @@
         <v>1694125.1931380513</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
         <v>112</v>
-      </c>
-      <c r="B51" t="s">
-        <v>113</v>
       </c>
       <c r="C51">
         <v>86.743649286383317</v>
@@ -3375,12 +3375,12 @@
         <v>3557015.6574277068</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
         <v>114</v>
-      </c>
-      <c r="B52" t="s">
-        <v>115</v>
       </c>
       <c r="C52">
         <v>97.979670640117149</v>
@@ -3419,12 +3419,12 @@
         <v>22506119.233416725</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
         <v>116</v>
-      </c>
-      <c r="B53" t="s">
-        <v>117</v>
       </c>
       <c r="C53">
         <v>146.18102478953682</v>
@@ -3463,12 +3463,12 @@
         <v>1445457.0722053447</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
         <v>118</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
       </c>
       <c r="C54">
         <v>135.71776755104153</v>
@@ -3507,12 +3507,12 @@
         <v>308565528.14757121</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
         <v>120</v>
-      </c>
-      <c r="B55" t="s">
-        <v>121</v>
       </c>
       <c r="C55">
         <v>115.2618300103628</v>
@@ -3551,12 +3551,12 @@
         <v>78814330.274572685</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
         <v>122</v>
-      </c>
-      <c r="B56" t="s">
-        <v>123</v>
       </c>
       <c r="C56">
         <v>92.543557958181026</v>
@@ -3595,12 +3595,12 @@
         <v>8149849.2241615746</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
         <v>124</v>
-      </c>
-      <c r="B57" t="s">
-        <v>125</v>
       </c>
       <c r="C57">
         <v>110.79075171410021</v>
@@ -3639,12 +3639,12 @@
         <v>10028389.887437662</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
         <v>126</v>
-      </c>
-      <c r="B58" t="s">
-        <v>127</v>
       </c>
       <c r="C58">
         <v>99.111638169778928</v>
@@ -3683,12 +3683,12 @@
         <v>68318172.802057117</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
         <v>128</v>
-      </c>
-      <c r="B59" t="s">
-        <v>129</v>
       </c>
       <c r="C59">
         <v>111.99895338752344</v>
@@ -3727,12 +3727,12 @@
         <v>2740973.560288209</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s">
         <v>130</v>
-      </c>
-      <c r="B60" t="s">
-        <v>131</v>
       </c>
       <c r="C60">
         <v>136.49645148743767</v>
@@ -3771,12 +3771,12 @@
         <v>6728727.089725364</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
         <v>132</v>
-      </c>
-      <c r="B61" t="s">
-        <v>133</v>
       </c>
       <c r="C61">
         <v>283.44540943933168</v>
@@ -3815,12 +3815,12 @@
         <v>1669720.5003475093</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s">
         <v>134</v>
-      </c>
-      <c r="B62" t="s">
-        <v>135</v>
       </c>
       <c r="C62">
         <v>119.9322993489963</v>
@@ -3859,12 +3859,12 @@
         <v>32959188.022127047</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
         <v>136</v>
-      </c>
-      <c r="B63" t="s">
-        <v>137</v>
       </c>
       <c r="C63">
         <v>110.02693915567426</v>
@@ -3903,12 +3903,12 @@
         <v>43726753.498399489</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
         <v>138</v>
-      </c>
-      <c r="B64" t="s">
-        <v>139</v>
       </c>
       <c r="C64">
         <v>92.940465372072083</v>
@@ -3947,12 +3947,12 @@
         <v>285850965.01147759</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s">
         <v>140</v>
-      </c>
-      <c r="B65" t="s">
-        <v>141</v>
       </c>
       <c r="C65">
         <v>179.55648521380976</v>
@@ -3991,12 +3991,12 @@
         <v>372909.6346445774</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
         <v>142</v>
-      </c>
-      <c r="B66" t="s">
-        <v>143</v>
       </c>
       <c r="C66">
         <v>90.448266476891575</v>
@@ -4035,12 +4035,12 @@
         <v>80112769.996417627</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
         <v>144</v>
-      </c>
-      <c r="B67" t="s">
-        <v>145</v>
       </c>
       <c r="C67">
         <v>132.26126152573687</v>
@@ -4079,12 +4079,12 @@
         <v>8660580.4988506082</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
         <v>146</v>
-      </c>
-      <c r="B68" t="s">
-        <v>147</v>
       </c>
       <c r="C68">
         <v>113.71446709385779</v>
@@ -4123,12 +4123,12 @@
         <v>20553984.721176885</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
         <v>148</v>
-      </c>
-      <c r="B69" t="s">
-        <v>149</v>
       </c>
       <c r="C69">
         <v>87.264492410319349</v>
@@ -4167,12 +4167,12 @@
         <v>156099516.69023797</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" t="s">
         <v>150</v>
-      </c>
-      <c r="B70" t="s">
-        <v>151</v>
       </c>
       <c r="C70">
         <v>97.094986871936726</v>
@@ -4211,12 +4211,12 @@
         <v>2053724.8440180342</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" t="s">
         <v>152</v>
-      </c>
-      <c r="B71" t="s">
-        <v>153</v>
       </c>
       <c r="C71">
         <v>114.60482913887414</v>
@@ -4255,12 +4255,12 @@
         <v>54530621.945151851</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
         <v>154</v>
-      </c>
-      <c r="B72" t="s">
-        <v>155</v>
       </c>
       <c r="C72">
         <v>107.58707703957872</v>
@@ -4299,12 +4299,12 @@
         <v>59348087.803944886</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s">
         <v>156</v>
-      </c>
-      <c r="B73" t="s">
-        <v>157</v>
       </c>
       <c r="C73">
         <v>89.318520777380897</v>
@@ -4343,12 +4343,12 @@
         <v>5598652.1907190494</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" t="s">
         <v>158</v>
-      </c>
-      <c r="B74" t="s">
-        <v>159</v>
       </c>
       <c r="C74">
         <v>96.08487904089894</v>
@@ -4387,12 +4387,12 @@
         <v>26428794.672663171</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
         <v>160</v>
-      </c>
-      <c r="B75" t="s">
-        <v>161</v>
       </c>
       <c r="C75">
         <v>127.57432128729474</v>
@@ -4431,12 +4431,12 @@
         <v>91494756.338138342</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s">
         <v>162</v>
-      </c>
-      <c r="B76" t="s">
-        <v>163</v>
       </c>
       <c r="C76">
         <v>168.14447188110239</v>
@@ -4475,12 +4475,12 @@
         <v>1844077.6330691364</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
         <v>164</v>
-      </c>
-      <c r="B77" t="s">
-        <v>165</v>
       </c>
       <c r="C77">
         <v>145.17245903295796</v>
@@ -4519,12 +4519,12 @@
         <v>1777989.9117601742</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" t="s">
         <v>166</v>
-      </c>
-      <c r="B78" t="s">
-        <v>167</v>
       </c>
       <c r="C78">
         <v>98.919203819611838</v>
@@ -4563,12 +4563,12 @@
         <v>56729487.637475528</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" t="s">
         <v>168</v>
-      </c>
-      <c r="B79" t="s">
-        <v>169</v>
       </c>
       <c r="C79">
         <v>150.41164593961497</v>
@@ -4607,12 +4607,12 @@
         <v>2984675.5398481674</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
         <v>170</v>
-      </c>
-      <c r="B80" t="s">
-        <v>171</v>
       </c>
       <c r="C80">
         <v>113.18678370509257</v>
@@ -4651,12 +4651,12 @@
         <v>2718839.7669616267</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" t="s">
         <v>172</v>
-      </c>
-      <c r="B81" t="s">
-        <v>173</v>
       </c>
       <c r="C81">
         <v>96.621052119425599</v>
@@ -4695,12 +4695,12 @@
         <v>18926171.924010828</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
         <v>174</v>
-      </c>
-      <c r="B82" t="s">
-        <v>175</v>
       </c>
       <c r="C82">
         <v>84.947329988148724</v>
@@ -4739,12 +4739,12 @@
         <v>5318267.6969147651</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
         <v>176</v>
-      </c>
-      <c r="B83" t="s">
-        <v>177</v>
       </c>
       <c r="C83">
         <v>135.68539651370295</v>
@@ -4783,12 +4783,12 @@
         <v>3648654.3859705781</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" t="s">
         <v>178</v>
-      </c>
-      <c r="B84" t="s">
-        <v>179</v>
       </c>
       <c r="C84">
         <v>112.99431969140706</v>
@@ -4827,12 +4827,12 @@
         <v>13490972.516206687</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" t="s">
         <v>180</v>
-      </c>
-      <c r="B85" t="s">
-        <v>181</v>
       </c>
       <c r="C85">
         <v>184.55521815463334</v>
@@ -4871,12 +4871,12 @@
         <v>290304450.77527118</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" t="s">
         <v>182</v>
-      </c>
-      <c r="B86" t="s">
-        <v>183</v>
       </c>
       <c r="C86">
         <v>94.607344869944328</v>
@@ -4915,12 +4915,12 @@
         <v>233960059.47977903</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
         <v>184</v>
-      </c>
-      <c r="B87" t="s">
-        <v>185</v>
       </c>
       <c r="C87">
         <v>109.38447941106095</v>
@@ -4959,12 +4959,12 @@
         <v>6132246.8761622077</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s">
         <v>186</v>
-      </c>
-      <c r="B88" t="s">
-        <v>187</v>
       </c>
       <c r="C88">
         <v>367.51122533528968</v>
@@ -5003,12 +5003,12 @@
         <v>1044.3298752298824</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" t="s">
         <v>188</v>
-      </c>
-      <c r="B89" t="s">
-        <v>189</v>
       </c>
       <c r="C89">
         <v>112.29988174924907</v>
@@ -5047,12 +5047,12 @@
         <v>758001.88676752185</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" t="s">
         <v>190</v>
-      </c>
-      <c r="B90" t="s">
-        <v>191</v>
       </c>
       <c r="C90">
         <v>112.75185394428905</v>
@@ -5091,12 +5091,12 @@
         <v>1070168.5866731238</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" t="s">
         <v>192</v>
-      </c>
-      <c r="B91" t="s">
-        <v>193</v>
       </c>
       <c r="C91">
         <v>90.694819961204928</v>
@@ -5135,12 +5135,12 @@
         <v>143106678.19359347</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" t="s">
         <v>194</v>
-      </c>
-      <c r="B92" t="s">
-        <v>195</v>
       </c>
       <c r="C92">
         <v>89.841726084276601</v>
@@ -5179,12 +5179,12 @@
         <v>87238641.387202531</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" t="s">
         <v>196</v>
-      </c>
-      <c r="B93" t="s">
-        <v>197</v>
       </c>
       <c r="C93">
         <v>112.11939438819375</v>
@@ -5223,12 +5223,12 @@
         <v>427663180.35206854</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" t="s">
         <v>198</v>
-      </c>
-      <c r="B94" t="s">
-        <v>199</v>
       </c>
       <c r="C94">
         <v>106.27419930967343</v>
@@ -5267,12 +5267,12 @@
         <v>3770537.1488041128</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" t="s">
         <v>200</v>
-      </c>
-      <c r="B95" t="s">
-        <v>201</v>
       </c>
       <c r="C95">
         <v>104.01699543913981</v>
@@ -5311,12 +5311,12 @@
         <v>1636790.2386187587</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" t="s">
         <v>202</v>
-      </c>
-      <c r="B96" t="s">
-        <v>203</v>
       </c>
       <c r="C96">
         <v>157.87961269897713</v>
@@ -5355,12 +5355,12 @@
         <v>9810702.4571459312</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s">
         <v>204</v>
-      </c>
-      <c r="B97" t="s">
-        <v>205</v>
       </c>
       <c r="C97">
         <v>103.42644308251437</v>
@@ -5399,12 +5399,12 @@
         <v>1765143.052002972</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
         <v>206</v>
-      </c>
-      <c r="B98" t="s">
-        <v>207</v>
       </c>
       <c r="C98">
         <v>118.34143104290813</v>
@@ -5443,12 +5443,12 @@
         <v>816723.67480982933</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" t="s">
         <v>208</v>
-      </c>
-      <c r="B99" t="s">
-        <v>209</v>
       </c>
       <c r="C99">
         <v>118.27841774724514</v>
@@ -5487,12 +5487,12 @@
         <v>76496690.964210749</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" t="s">
         <v>210</v>
-      </c>
-      <c r="B100" t="s">
-        <v>211</v>
       </c>
       <c r="C100">
         <v>120.85398415995768</v>
@@ -5531,12 +5531,12 @@
         <v>8951004.927046204</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" t="s">
         <v>212</v>
-      </c>
-      <c r="B101" t="s">
-        <v>213</v>
       </c>
       <c r="C101">
         <v>144.65302257091173</v>
@@ -5575,12 +5575,12 @@
         <v>233263.68541427911</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>213</v>
+      </c>
+      <c r="B102" t="s">
         <v>214</v>
-      </c>
-      <c r="B102" t="s">
-        <v>215</v>
       </c>
       <c r="C102">
         <v>105.39246967686246</v>
@@ -5619,12 +5619,12 @@
         <v>37975597.72195372</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s">
         <v>216</v>
-      </c>
-      <c r="B103" t="s">
-        <v>217</v>
       </c>
       <c r="C103">
         <v>93.100084204708097</v>
@@ -5663,12 +5663,12 @@
         <v>15684297.907211462</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" t="s">
         <v>218</v>
-      </c>
-      <c r="B104" t="s">
-        <v>219</v>
       </c>
       <c r="C104">
         <v>132.6959429466599</v>
@@ -5707,12 +5707,12 @@
         <v>15906747.382569399</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" t="s">
         <v>220</v>
-      </c>
-      <c r="B105" t="s">
-        <v>221</v>
       </c>
       <c r="C105">
         <v>204.15143653900944</v>
@@ -5751,12 +5751,12 @@
         <v>12550453.715545032</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" t="s">
         <v>222</v>
-      </c>
-      <c r="B106" t="s">
-        <v>223</v>
       </c>
       <c r="C106">
         <v>106.26438845173308</v>
@@ -5795,12 +5795,12 @@
         <v>3044465.9622652959</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" t="s">
         <v>224</v>
-      </c>
-      <c r="B107" t="s">
-        <v>225</v>
       </c>
       <c r="C107">
         <v>116.69243860064486</v>
@@ -5839,12 +5839,12 @@
         <v>4772119.2627830133</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" t="s">
         <v>226</v>
-      </c>
-      <c r="B108" t="s">
-        <v>227</v>
       </c>
       <c r="C108">
         <v>94.914720585310164</v>
@@ -5883,12 +5883,12 @@
         <v>661034656.99396288</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109" t="s">
         <v>228</v>
-      </c>
-      <c r="B109" t="s">
-        <v>229</v>
       </c>
       <c r="C109">
         <v>127.34785865912957</v>
@@ -5927,12 +5927,12 @@
         <v>588792.00003800343</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" t="s">
         <v>230</v>
-      </c>
-      <c r="B110" t="s">
-        <v>231</v>
       </c>
       <c r="C110">
         <v>123.70675647165025</v>
@@ -5971,12 +5971,12 @@
         <v>12461871.844873829</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" t="s">
         <v>232</v>
-      </c>
-      <c r="B111" t="s">
-        <v>233</v>
       </c>
       <c r="C111">
         <v>174.15034984924586</v>
@@ -6015,12 +6015,12 @@
         <v>35959381.784558952</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>233</v>
+      </c>
+      <c r="B112" t="s">
         <v>234</v>
-      </c>
-      <c r="B112" t="s">
-        <v>235</v>
       </c>
       <c r="C112">
         <v>140.87512396236471</v>
@@ -6059,12 +6059,12 @@
         <v>10394848.261468781</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" t="s">
         <v>236</v>
-      </c>
-      <c r="B113" t="s">
-        <v>237</v>
       </c>
       <c r="C113">
         <v>170.07780102345552</v>
@@ -6103,12 +6103,12 @@
         <v>20528022.738592926</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" t="s">
         <v>238</v>
-      </c>
-      <c r="B114" t="s">
-        <v>239</v>
       </c>
       <c r="C114">
         <v>123.43260930358512</v>
